--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>005416</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>34.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>005417</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>34.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161606</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通行业景气混合A/B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009277</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通行业景气混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>76.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008382</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>融通产业趋势股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002989</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通通乾研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>257.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.2582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>184.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>96.97</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010506</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.97</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006199</t>
+          <t>002989</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛同锦研究精选混合</t>
+          <t>融通通乾研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>008382</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>融通产业趋势股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007113</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>永赢高端制造混合A</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007114</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>永赢高端制造混合C</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>007113</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>永赢高端制造混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001892</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002085</t>
+          <t>006199</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛互联网+主题灵活配置混合</t>
+          <t>长盛同锦研究精选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>007114</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>永赢高端制造混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002989</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>融通通乾研究精选灵活配置混合</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008382</t>
+          <t>010506</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>融通产业趋势股票</t>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>96.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1770,26 +2230,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2238,7 +2239,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -2254,6 +2254,516 @@
       </c>
       <c r="H32" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.4063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2769,4 +2770,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2902,4 +2903,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2911,7 +2912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,17 +2923,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2942,14 +2963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.53</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2958,14 +3001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.66</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2974,14 +3039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.85</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1480</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2990,13 +3077,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3348,7 +3349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3359,17 +3360,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3379,14 +3400,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.54</v>
       </c>
     </row>
     <row r="3">
@@ -3395,14 +3438,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.53</v>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3411,14 +3476,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.66</v>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3427,14 +3514,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.85</v>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3443,13 +3552,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6.54</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.53</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>19.66</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>30.85</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.05</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5524</t>
+          <t>0.4913</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0851</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>工银灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>74.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0519</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>工银灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>74.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -829,6 +844,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3133,7 +3394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
+++ b/数据整理/stocks/A股/深证主板/000951-中国重汽.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6.54</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.53</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>19.66</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>30.85</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.05</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>35.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4913</t>
+          <t>1.4852</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>519033</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>海富通国策导向混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.6118</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>17.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.5925</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>010452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银灵活配置混合A</t>
+          <t>广发瑞福精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.34</t>
+          <t>83.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.5312</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -808,34 +825,1662 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>001428</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>工银灵活配置混合B</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加科鑫混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加科鑫混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
-        <v>7</v>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -910,26 +2555,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5524</t>
+          <t>0.4913</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -948,26 +2593,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.2474</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -976,36 +2621,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>000965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>汇丰晋信新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0851</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1014,36 +2659,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>工银灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>74.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0519</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1052,36 +2697,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000965</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信新动力混合</t>
+          <t>工银灵活配置混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>74.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1090,6 +2733,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +3414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2167,7 +4056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3394,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
